--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/D/15/seed3/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/D/15/seed3/result_data_RandomForest.xlsx
@@ -573,7 +573,7 @@
         <v>-14.64</v>
       </c>
       <c r="D8" t="n">
-        <v>-8.7006</v>
+        <v>-8.906300000000002</v>
       </c>
       <c r="E8" t="n">
         <v>16.54</v>
@@ -607,7 +607,7 @@
         <v>-12.45</v>
       </c>
       <c r="D10" t="n">
-        <v>-8.260199999999992</v>
+        <v>-8.351099999999995</v>
       </c>
       <c r="E10" t="n">
         <v>15.84</v>
@@ -641,7 +641,7 @@
         <v>-9.76</v>
       </c>
       <c r="D12" t="n">
-        <v>-7.119499999999997</v>
+        <v>-7.052799999999995</v>
       </c>
       <c r="E12" t="n">
         <v>17.26</v>
@@ -743,7 +743,7 @@
         <v>-15.14</v>
       </c>
       <c r="D18" t="n">
-        <v>-8.774299999999997</v>
+        <v>-8.765099999999999</v>
       </c>
       <c r="E18" t="n">
         <v>17.03</v>
@@ -1066,7 +1066,7 @@
         <v>-12.29</v>
       </c>
       <c r="D37" t="n">
-        <v>-8.043699999999999</v>
+        <v>-8.134499999999999</v>
       </c>
       <c r="E37" t="n">
         <v>16.03</v>
@@ -1372,7 +1372,7 @@
         <v>-15.79</v>
       </c>
       <c r="D55" t="n">
-        <v>-8.9422</v>
+        <v>-8.920899999999996</v>
       </c>
       <c r="E55" t="n">
         <v>16.57</v>
@@ -1593,7 +1593,7 @@
         <v>-9.98</v>
       </c>
       <c r="D68" t="n">
-        <v>-6.912499999999995</v>
+        <v>-6.895999999999992</v>
       </c>
       <c r="E68" t="n">
         <v>17.66</v>
@@ -1746,7 +1746,7 @@
         <v>-9.57</v>
       </c>
       <c r="D77" t="n">
-        <v>-5.4785</v>
+        <v>-5.624100000000001</v>
       </c>
       <c r="E77" t="n">
         <v>17.96</v>
@@ -1763,7 +1763,7 @@
         <v>-13.33</v>
       </c>
       <c r="D78" t="n">
-        <v>-7.547200000000003</v>
+        <v>-7.741900000000002</v>
       </c>
       <c r="E78" t="n">
         <v>17.28</v>
@@ -1814,7 +1814,7 @@
         <v>-11.36</v>
       </c>
       <c r="D81" t="n">
-        <v>-7.484899999999995</v>
+        <v>-7.631499999999996</v>
       </c>
       <c r="E81" t="n">
         <v>17.6</v>
@@ -1831,7 +1831,7 @@
         <v>-14.08</v>
       </c>
       <c r="D82" t="n">
-        <v>-8.290899999999992</v>
+        <v>-8.304399999999992</v>
       </c>
       <c r="E82" t="n">
         <v>16.71</v>
